--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
@@ -200,13 +200,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
   </si>
 </sst>
 </file>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1565,187 +1565,187 @@
         <v>4.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
+      <c r="D71" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="72"/>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="73"/>
     <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
+      <c r="A74" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
+      <c r="A77" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s" s="9">
+      <c r="A78" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
+      <c r="A79" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>25</v>
+      <c r="A80" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D81" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B82" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="82"/>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1790,8 +1790,8 @@
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:F76"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
@@ -176,37 +176,37 @@
     <t>SYSTEM solicita confirmacao de exclusao da Avaliacao</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Avaliacoes com o Avaliacao excluido</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do Avaliacao</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe a listagem dos Avaliacoes sem o Avaliacao excluido</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes com o Avaliacao excluido</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1403,7 @@
         <v>4.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1565,187 +1565,187 @@
         <v>4.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D71" t="s" s="7">
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B77" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D74" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F74" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F75" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B76" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B77" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C77" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D77" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E77" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F77" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="82"/>
+      <c r="D81" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1790,8 +1790,8 @@
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
@@ -176,37 +176,37 @@
     <t>SYSTEM solicita confirmacao de exclusao da Avaliacao</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do Avaliacao</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Avaliacoes com o Avaliacao excluido</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do Avaliacao</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
+    <t>SYSTEM exibe a listagem dos Avaliacoes sem o Avaliacao excluido</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
   </si>
   <si>
-    <t>TC6</t>
+    <t>TC7</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes sem o Avaliacao excluido</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1403,7 @@
         <v>4.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1565,187 +1565,187 @@
         <v>4.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
+      <c r="D71" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="72"/>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="73"/>
     <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
+      <c r="A74" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
+      <c r="A77" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s" s="9">
+      <c r="A78" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
+      <c r="A79" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>25</v>
+      <c r="A80" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D81" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B82" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="82"/>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1790,8 +1790,8 @@
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:F76"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
@@ -95,7 +95,7 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Avaliacao</t>
@@ -125,7 +125,7 @@
     <t>Lider de Pessoas Em 'Metas', insere o 'Nivel' esperado para cada competencia do perfil selecionado na Avaliacao</t>
   </si>
   <si>
-    <t>SYSTEM apresenta em 'Metas' os campos 'Nivel' preenchido corretamente</t>
+    <t>SYSTEM apresenta em 'Metas' os campos 'Nivel' preenchidos corretamente</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona 'Avaliadores' da Avaliacao</t>
@@ -158,10 +158,10 @@
     <t>Lider de Pessoas clica na opcao 'Editar' para modificar a Avaliacao selecionada</t>
   </si>
   <si>
-    <t>SYSTEM apresenta o formulario para e alteracao de Avaliacao</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas verifica que os campos 'Periodo Avaliativo', 'Perfil' e 'Avaliado' somente leitura</t>
+    <t>SYSTEM apresenta o formulario para e alteracao da Avaliacao</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas verifica que os campos 'Periodo Avaliativo', 'Perfil' e 'Avaliado' estao em modo somente leitura</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Avaliacao, informando o campo ou a validacao que falhou</t>
@@ -179,34 +179,34 @@
     <t>Lider de Pessoas confirma a exclusao do Avaliacao</t>
   </si>
   <si>
+    <t>SYSTEM exibe a listagem das Avaliacoes sem a Avaliacao excluida</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Avaliacoes com a Avaliacao nao excluida</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes com o Avaliacao excluido</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes sem o Avaliacao excluido</t>
-  </si>
-  <si>
-    <t>TC6</t>
+    <t>TC7</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1383,13 +1383,13 @@
         <v>3.0</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>2</v>
@@ -1403,349 +1403,349 @@
         <v>4.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D61" t="s" s="7">
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="E61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B67" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D64" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="4">
+      <c r="D67" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F64" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="9">
+      <c r="F67" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s" s="9">
+      <c r="B68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F65" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="8">
+      <c r="F68" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B69" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="5">
+      <c r="C69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B70" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C67" t="s" s="5">
+      <c r="C70" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D67" t="s" s="5">
+      <c r="D70" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E67" t="s" s="5">
+      <c r="E70" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F67" t="s" s="5">
+      <c r="F70" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B70" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B74" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B77" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D74" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F74" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F75" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B76" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B77" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C77" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D77" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E77" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F77" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="82"/>
+      <c r="D81" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
@@ -1788,10 +1788,10 @@
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--GTP-.xlsx
@@ -194,13 +194,13 @@
     <t>TC5</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Avaliacao, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao</t>
   </si>
   <si>
     <t>TC7</t>
@@ -1383,13 +1383,13 @@
         <v>3.0</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>2</v>
@@ -1403,187 +1403,187 @@
         <v>4.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
+      <c r="D61" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="62"/>
-    <row r="63">
-      <c r="A63" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B63" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="63"/>
     <row r="64">
-      <c r="A64" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B64" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C64" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="E64" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65"/>
-    <row r="66"/>
+      <c r="A64" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="67">
-      <c r="A67" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s" s="4">
-        <v>2</v>
+      <c r="A67" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s" s="9">
+      <c r="A68" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="8">
+      <c r="A69" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B70" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C70" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D70" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E70" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F70" t="s" s="5">
-        <v>25</v>
+      <c r="A70" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D71" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="72"/>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
@@ -1788,8 +1788,8 @@
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:F66"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:F79"/>
   </mergeCells>
